--- a/old_doc/05.テーブル定義書.xlsx
+++ b/old_doc/05.テーブル定義書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r_yokoyama\Desktop\AttendanceManagement\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\AttendanceManagement\old_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3098784F-0DBE-40A0-9D76-DFF3D71FA80A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8D9AFA-A4E4-4A33-B6D0-C3442C812504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="2" xr2:uid="{86D7C1C3-BE64-4502-BA95-2B1E547E93EC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{86D7C1C3-BE64-4502-BA95-2B1E547E93EC}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="106">
   <si>
     <t>変更日</t>
     <rPh sb="0" eb="3">
@@ -645,6 +645,26 @@
     <t>時短フラグ</t>
     <rPh sb="0" eb="2">
       <t>ジタン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>modifier</t>
+  </si>
+  <si>
+    <t>更新者</t>
+    <rPh sb="0" eb="3">
+      <t>コウシンシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新者のテーブル追加</t>
+    <rPh sb="0" eb="3">
+      <t>コウシンシャ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -906,7 +926,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -955,17 +975,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -974,6 +985,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1719,15 +1733,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0CDFEFF-A1B6-4F70-A1D3-8878E0D0944A}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1739,6 +1753,20 @@
       </c>
       <c r="D1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="20">
+        <v>44986</v>
+      </c>
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1749,21 +1777,21 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0163FD23-A176-4938-96B3-E049C401EF87}">
-  <dimension ref="C1:I29"/>
+  <dimension ref="C1:H29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.19921875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="3:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="3:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C2" s="14" t="s">
         <v>18</v>
       </c>
@@ -1771,7 +1799,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="3:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C3" s="3" t="s">
         <v>92</v>
       </c>
@@ -1779,7 +1807,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C4" s="1" t="s">
         <v>46</v>
       </c>
@@ -1787,7 +1815,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C5" s="1" t="s">
         <v>24</v>
       </c>
@@ -1795,7 +1823,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C6" s="1" t="s">
         <v>31</v>
       </c>
@@ -1803,7 +1831,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C7" s="1" t="s">
         <v>47</v>
       </c>
@@ -1811,7 +1839,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C8" s="1" t="s">
         <v>48</v>
       </c>
@@ -1819,12 +1847,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C9" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C10" s="1" t="s">
         <v>50</v>
       </c>
@@ -1832,7 +1860,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C11" s="1" t="s">
         <v>51</v>
       </c>
@@ -1840,7 +1868,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C12" s="1" t="s">
         <v>52</v>
       </c>
@@ -1848,7 +1876,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C13" s="1" t="s">
         <v>53</v>
       </c>
@@ -1856,22 +1884,20 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="3:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="H14" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="3:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C15" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="G15" s="16"/>
       <c r="H15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I15" s="16"/>
-    </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C16" s="3" t="s">
         <v>36</v>
       </c>
@@ -1879,7 +1905,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C17" s="1" t="s">
         <v>73</v>
       </c>
@@ -1887,7 +1913,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C18" s="1" t="s">
         <v>75</v>
       </c>
@@ -1895,7 +1921,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C19" s="1" t="s">
         <v>49</v>
       </c>
@@ -1903,7 +1929,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C20" s="1" t="s">
         <v>50</v>
       </c>
@@ -1911,43 +1937,43 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="3:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="22" spans="3:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="22" spans="3:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="H22" s="15" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="3:8" x14ac:dyDescent="0.45">
       <c r="H23" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="24" spans="3:8" x14ac:dyDescent="0.45">
       <c r="H24" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="25" spans="3:8" x14ac:dyDescent="0.45">
       <c r="H25" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="26" spans="3:8" x14ac:dyDescent="0.45">
       <c r="H26" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="27" spans="3:8" x14ac:dyDescent="0.45">
       <c r="H27" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="28" spans="3:8" x14ac:dyDescent="0.45">
       <c r="H28" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="29" spans="3:8" x14ac:dyDescent="0.45">
       <c r="H29" s="1" t="s">
         <v>50</v>
       </c>
@@ -1969,13 +1995,13 @@
       <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="10" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" s="10" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="7" t="s">
         <v>10</v>
       </c>
@@ -2001,7 +2027,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2011,7 +2037,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2021,7 +2047,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2031,7 +2057,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -2041,7 +2067,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2051,7 +2077,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2061,7 +2087,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2071,7 +2097,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2081,7 +2107,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2091,7 +2117,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2101,7 +2127,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -2111,7 +2137,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2121,7 +2147,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2131,7 +2157,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2141,7 +2167,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2151,7 +2177,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2173,19 +2199,19 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -2205,7 +2231,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2215,7 +2241,7 @@
       <c r="C2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="17">
         <v>44745</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -2223,7 +2249,7 @@
       </c>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2233,7 +2259,7 @@
       <c r="C3" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="18">
         <v>44748</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -2241,7 +2267,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2251,7 +2277,7 @@
       <c r="C4" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="18">
         <v>44753</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -2259,17 +2285,17 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" t="s">
         <v>85</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="18">
         <v>44753</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -2277,7 +2303,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2287,7 +2313,7 @@
       <c r="C6" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="18">
         <v>44753</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -2295,7 +2321,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2305,7 +2331,7 @@
       <c r="C7" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="18">
         <v>44766</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -2313,17 +2339,17 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="18">
         <v>44772</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -2331,7 +2357,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2339,7 +2365,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2347,7 +2373,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2355,7 +2381,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -2363,7 +2389,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2371,7 +2397,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2379,7 +2405,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2397,22 +2423,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07336684-0152-4466-A2B8-47439D55F67C}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.19921875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="10" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" s="10" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="7" t="s">
         <v>10</v>
       </c>
@@ -2438,7 +2464,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2462,7 +2488,7 @@
       </c>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2486,7 +2512,7 @@
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2510,7 +2536,7 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2534,7 +2560,7 @@
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2560,7 +2586,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2586,7 +2612,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2610,7 +2636,7 @@
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2634,7 +2660,7 @@
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2658,7 +2684,7 @@
       </c>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2682,7 +2708,7 @@
       </c>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2706,7 +2732,7 @@
       </c>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2716,7 +2742,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2726,7 +2752,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2736,7 +2762,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2746,7 +2772,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2770,18 +2796,18 @@
       <selection activeCell="D5" sqref="D5:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.19921875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="10" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" s="10" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="7" t="s">
         <v>10</v>
       </c>
@@ -2807,7 +2833,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2831,7 +2857,7 @@
       </c>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2855,7 +2881,7 @@
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2879,7 +2905,7 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2905,7 +2931,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2929,7 +2955,7 @@
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2953,7 +2979,7 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2977,7 +3003,7 @@
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2987,7 +3013,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2997,7 +3023,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -3007,7 +3033,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -3017,7 +3043,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -3040,20 +3066,20 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D4" sqref="D4"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B11"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.8984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="10" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" s="10" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="7" t="s">
         <v>10</v>
       </c>
@@ -3079,7 +3105,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -3103,7 +3129,7 @@
       </c>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3127,7 +3153,7 @@
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3151,7 +3177,7 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3175,7 +3201,7 @@
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3199,7 +3225,7 @@
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3223,7 +3249,7 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3247,7 +3273,7 @@
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3271,7 +3297,7 @@
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3295,7 +3321,7 @@
       </c>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3319,17 +3345,31 @@
       </c>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="1">
+        <v>32</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -3339,7 +3379,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -3349,7 +3389,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -3359,7 +3399,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -3369,7 +3409,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -3395,18 +3435,18 @@
       <selection pane="bottomLeft" activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.09765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="10" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" s="10" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="7" t="s">
         <v>10</v>
       </c>
@@ -3432,7 +3472,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -3456,7 +3496,7 @@
       </c>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3480,7 +3520,7 @@
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3504,7 +3544,7 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3528,7 +3568,7 @@
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3552,7 +3592,7 @@
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3576,7 +3616,7 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -3586,7 +3626,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -3596,7 +3636,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -3606,7 +3646,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -3616,7 +3656,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -3626,7 +3666,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -3636,7 +3676,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -3646,7 +3686,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -3656,7 +3696,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -3666,7 +3706,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -3692,17 +3732,17 @@
       <selection pane="bottomLeft" activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.8984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="10" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" s="10" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="7" t="s">
         <v>10</v>
       </c>
@@ -3728,7 +3768,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3752,7 +3792,7 @@
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3765,7 +3805,7 @@
       <c r="D3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="1">
         <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -3776,7 +3816,7 @@
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3789,7 +3829,7 @@
       <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="1">
         <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -3800,7 +3840,7 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3816,7 +3856,7 @@
       <c r="E5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -3824,7 +3864,7 @@
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3840,7 +3880,7 @@
       <c r="E6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -3848,7 +3888,7 @@
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -3858,7 +3898,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -3868,7 +3908,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -3878,7 +3918,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -3888,7 +3928,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -3898,7 +3938,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -3908,7 +3948,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -3918,7 +3958,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -3928,7 +3968,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -3954,15 +3994,15 @@
       <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="10" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" s="10" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="7" t="s">
         <v>10</v>
       </c>
@@ -3988,7 +4028,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -4012,7 +4052,7 @@
       </c>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -4036,7 +4076,7 @@
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -4060,7 +4100,7 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -4084,7 +4124,7 @@
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -4108,14 +4148,14 @@
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="19" t="s">
         <v>101</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -4134,7 +4174,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -4158,7 +4198,7 @@
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -4182,7 +4222,7 @@
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -4192,7 +4232,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -4202,7 +4242,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -4212,7 +4252,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -4222,7 +4262,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -4232,7 +4272,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -4258,15 +4298,15 @@
       <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="10" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" s="10" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="7" t="s">
         <v>10</v>
       </c>
@@ -4292,7 +4332,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -4316,7 +4356,7 @@
       </c>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4340,7 +4380,7 @@
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4364,7 +4404,7 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -4374,7 +4414,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -4384,7 +4424,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -4394,7 +4434,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -4404,7 +4444,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -4414,7 +4454,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
